--- a/Module 2 Everyday Excel Part 2/Week 1 files/Sales.xlsx
+++ b/Module 2 Everyday Excel Part 2/Week 1 files/Sales.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\MOOC Excel\Screencasts\Week 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Week 1 files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6A6BE5-DE49-438E-9E08-1A8F2A37B0D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C2B130-208C-4AED-BC04-AB235E2DB3CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1305" windowWidth="28500" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Total Sales</t>
   </si>
@@ -69,6 +61,48 @@
   </si>
   <si>
     <t>Max. monthly sale:</t>
+  </si>
+  <si>
+    <t>Who:</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -76,10 +110,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +132,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -223,9 +263,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -241,6 +281,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -557,23 +602,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C65F21-6C23-461B-8DF9-3F6D54EB8390}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.265625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -592,8 +639,9 @@
       <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -612,14 +660,18 @@
       <c r="F4" s="6">
         <v>330</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="5"/>
+      <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J4" s="2">
+        <v>7</v>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -638,8 +690,12 @@
       <c r="F5" s="6">
         <v>240</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G5" s="5"/>
+      <c r="P5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -658,12 +714,19 @@
       <c r="F6" s="6">
         <v>360</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="5"/>
+      <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J6" s="3">
+        <f ca="1">SUM(OFFSET($A$3,$J$4,1,1,5))</f>
+        <v>2180</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -682,12 +745,19 @@
       <c r="F7" s="6">
         <v>280</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="5"/>
+      <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J7" s="3">
+        <f ca="1">MAX(OFFSET($A$3,$J$4,1,1,5))</f>
+        <v>480</v>
+      </c>
+      <c r="P7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -706,9 +776,19 @@
       <c r="F8" s="6">
         <v>360</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G8" s="5"/>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="str">
+        <f ca="1">INDEX($B$3:$F$3,MATCH(MAX(OFFSET($A$3,$J$4,1,1,5)),OFFSET($A$3,$J$4,1,1,5),0))</f>
+        <v>Jimmy</v>
+      </c>
+      <c r="P8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -727,8 +807,12 @@
       <c r="F9" s="6">
         <v>520</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G9" s="5"/>
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -747,8 +831,12 @@
       <c r="F10" s="6">
         <v>390</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G10" s="5"/>
+      <c r="P10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -767,8 +855,12 @@
       <c r="F11" s="6">
         <v>390</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G11" s="5"/>
+      <c r="P11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -787,14 +879,18 @@
       <c r="F12" s="6">
         <v>350</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="5"/>
+      <c r="I12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -813,8 +909,12 @@
       <c r="F13" s="6">
         <v>380</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G13" s="5"/>
+      <c r="P13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -833,12 +933,19 @@
       <c r="F14" s="6">
         <v>270</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" s="5"/>
+      <c r="I14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J14" s="3">
+        <f ca="1">SUM(OFFSET($A$3,1,MATCH(J12,B3:F3,0),12,1))</f>
+        <v>4350</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -857,12 +964,66 @@
       <c r="F15" s="9">
         <v>230</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="5"/>
+      <c r="I15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <f ca="1">MAX(OFFSET($A$3,1,MATCH(J12,B3:F3,0),12,1))</f>
+        <v>450</v>
+      </c>
+      <c r="P15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15">
+        <f>SUM(B4:B15)</f>
+        <v>4240</v>
+      </c>
+      <c r="C16" s="15">
+        <f t="shared" ref="C16:F16" si="0">SUM(C4:C15)</f>
+        <v>4300</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" si="0"/>
+        <v>4350</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="0"/>
+        <v>4330</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="0"/>
+        <v>4100</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <f ca="1">MATCH(MAX(OFFSET($A$3,1,MATCH($J$12,$B$3:$F$3,0),12,1)),OFFSET($A$3,1,MATCH($J$12,$B$3:$F$3,0),12,1),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="e">
+        <f>ind</f>
+        <v>#NAME?</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4" xr:uid="{098B7D98-07B1-4C31-A25C-D48C7C304C73}">
+      <formula1>$A$4:$A$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12" xr:uid="{3E885972-20B2-45C9-97FD-E64EB3BA184E}">
+      <formula1>$B$3:$F$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
